--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Il17c-Il17re.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Il17c-Il17re.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>2.742348</v>
+        <v>0.04312</v>
       </c>
       <c r="H2">
-        <v>8.227043999999999</v>
+        <v>0.12936</v>
       </c>
       <c r="I2">
-        <v>0.8112951562181048</v>
+        <v>0.06332032271043876</v>
       </c>
       <c r="J2">
-        <v>0.8112951562181048</v>
+        <v>0.06332032271043876</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.001470666666666667</v>
+        <v>0.02747533333333333</v>
       </c>
       <c r="N2">
-        <v>0.004412</v>
+        <v>0.082426</v>
       </c>
       <c r="O2">
-        <v>0.012032749150453</v>
+        <v>0.1853602590626968</v>
       </c>
       <c r="P2">
-        <v>0.012032749150453</v>
+        <v>0.1853602590626968</v>
       </c>
       <c r="Q2">
-        <v>0.004033079792</v>
+        <v>0.001184736373333333</v>
       </c>
       <c r="R2">
-        <v>0.036297718128</v>
+        <v>0.01066262736</v>
       </c>
       <c r="S2">
-        <v>0.009762111101750036</v>
+        <v>0.01173707142154049</v>
       </c>
       <c r="T2">
-        <v>0.009762111101750036</v>
+        <v>0.01173707142154049</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>2.742348</v>
+        <v>0.04312</v>
       </c>
       <c r="H3">
-        <v>8.227043999999999</v>
+        <v>0.12936</v>
       </c>
       <c r="I3">
-        <v>0.8112951562181048</v>
+        <v>0.06332032271043876</v>
       </c>
       <c r="J3">
-        <v>0.8112951562181048</v>
+        <v>0.06332032271043876</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>0.169792</v>
       </c>
       <c r="O3">
-        <v>0.4630699328544234</v>
+        <v>0.3818296302959431</v>
       </c>
       <c r="P3">
-        <v>0.4630699328544234</v>
+        <v>0.3818296302959431</v>
       </c>
       <c r="Q3">
-        <v>0.155209583872</v>
+        <v>0.002440477013333333</v>
       </c>
       <c r="R3">
-        <v>1.396886254848</v>
+        <v>0.02196429312</v>
       </c>
       <c r="S3">
-        <v>0.3756863935150367</v>
+        <v>0.02417757541074664</v>
       </c>
       <c r="T3">
-        <v>0.3756863935150367</v>
+        <v>0.02417757541074664</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>2.742348</v>
+        <v>0.04312</v>
       </c>
       <c r="H4">
-        <v>8.227043999999999</v>
+        <v>0.12936</v>
       </c>
       <c r="I4">
-        <v>0.8112951562181048</v>
+        <v>0.06332032271043876</v>
       </c>
       <c r="J4">
-        <v>0.8112951562181048</v>
+        <v>0.06332032271043876</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>0.192462</v>
       </c>
       <c r="O4">
-        <v>0.5248973179951236</v>
+        <v>0.4328101106413601</v>
       </c>
       <c r="P4">
-        <v>0.5248973179951236</v>
+        <v>0.4328101106413601</v>
       </c>
       <c r="Q4">
-        <v>0.175932593592</v>
+        <v>0.00276632048</v>
       </c>
       <c r="R4">
-        <v>1.583393342328</v>
+        <v>0.02489688432</v>
       </c>
       <c r="S4">
-        <v>0.425846651601318</v>
+        <v>0.02740567587815163</v>
       </c>
       <c r="T4">
-        <v>0.425846651601318</v>
+        <v>0.02740567587815163</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>1.180913</v>
       </c>
       <c r="I5">
-        <v>0.1164536128425946</v>
+        <v>0.5780441577995699</v>
       </c>
       <c r="J5">
-        <v>0.1164536128425946</v>
+        <v>0.5780441577995699</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.001470666666666667</v>
+        <v>0.02747533333333333</v>
       </c>
       <c r="N5">
-        <v>0.004412</v>
+        <v>0.082426</v>
       </c>
       <c r="O5">
-        <v>0.012032749150453</v>
+        <v>0.1853602590626968</v>
       </c>
       <c r="P5">
-        <v>0.012032749150453</v>
+        <v>0.1853602590626968</v>
       </c>
       <c r="Q5">
-        <v>0.000578909795111111</v>
+        <v>0.01081532610422222</v>
       </c>
       <c r="R5">
-        <v>0.005210188156</v>
+        <v>0.09733793493799998</v>
       </c>
       <c r="S5">
-        <v>0.001401257110998913</v>
+        <v>0.1071464148394066</v>
       </c>
       <c r="T5">
-        <v>0.001401257110998913</v>
+        <v>0.1071464148394066</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1.180913</v>
       </c>
       <c r="I6">
-        <v>0.1164536128425946</v>
+        <v>0.5780441577995699</v>
       </c>
       <c r="J6">
-        <v>0.1164536128425946</v>
+        <v>0.5780441577995699</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,10 +806,10 @@
         <v>0.169792</v>
       </c>
       <c r="O6">
-        <v>0.4630699328544234</v>
+        <v>0.3818296302959431</v>
       </c>
       <c r="P6">
-        <v>0.4630699328544234</v>
+        <v>0.3818296302959431</v>
       </c>
       <c r="Q6">
         <v>0.02227884223288889</v>
@@ -818,10 +818,10 @@
         <v>0.200509580096</v>
       </c>
       <c r="S6">
-        <v>0.05392616667967529</v>
+        <v>0.2207143870673396</v>
       </c>
       <c r="T6">
-        <v>0.05392616667967529</v>
+        <v>0.2207143870673396</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1.180913</v>
       </c>
       <c r="I7">
-        <v>0.1164536128425946</v>
+        <v>0.5780441577995699</v>
       </c>
       <c r="J7">
-        <v>0.1164536128425946</v>
+        <v>0.5780441577995699</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>0.192462</v>
       </c>
       <c r="O7">
-        <v>0.5248973179951236</v>
+        <v>0.4328101106413601</v>
       </c>
       <c r="P7">
-        <v>0.5248973179951236</v>
+        <v>0.4328101106413601</v>
       </c>
       <c r="Q7">
         <v>0.02525343086733333</v>
@@ -880,10 +880,10 @@
         <v>0.227280877806</v>
       </c>
       <c r="S7">
-        <v>0.06112618905192038</v>
+        <v>0.2501833558928236</v>
       </c>
       <c r="T7">
-        <v>0.06112618905192038</v>
+        <v>0.2501833558928236</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,43 +909,43 @@
         <v>0.2442243333333333</v>
       </c>
       <c r="H8">
-        <v>0.732673</v>
+        <v>0.7326729999999999</v>
       </c>
       <c r="I8">
-        <v>0.07225123093930062</v>
+        <v>0.3586355194899915</v>
       </c>
       <c r="J8">
-        <v>0.07225123093930062</v>
+        <v>0.3586355194899914</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.001470666666666667</v>
+        <v>0.02747533333333333</v>
       </c>
       <c r="N8">
-        <v>0.004412</v>
+        <v>0.082426</v>
       </c>
       <c r="O8">
-        <v>0.012032749150453</v>
+        <v>0.1853602590626968</v>
       </c>
       <c r="P8">
-        <v>0.012032749150453</v>
+        <v>0.1853602590626968</v>
       </c>
       <c r="Q8">
-        <v>0.0003591725862222223</v>
+        <v>0.006710144966444444</v>
       </c>
       <c r="R8">
-        <v>0.003232553276</v>
+        <v>0.06039130469799999</v>
       </c>
       <c r="S8">
-        <v>0.0008693809377040532</v>
+        <v>0.06647677280174966</v>
       </c>
       <c r="T8">
-        <v>0.0008693809377040532</v>
+        <v>0.06647677280174964</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,13 +971,13 @@
         <v>0.2442243333333333</v>
       </c>
       <c r="H9">
-        <v>0.732673</v>
+        <v>0.7326729999999999</v>
       </c>
       <c r="I9">
-        <v>0.07225123093930062</v>
+        <v>0.3586355194899915</v>
       </c>
       <c r="J9">
-        <v>0.07225123093930062</v>
+        <v>0.3586355194899914</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,10 +992,10 @@
         <v>0.169792</v>
       </c>
       <c r="O9">
-        <v>0.4630699328544234</v>
+        <v>0.3818296302959431</v>
       </c>
       <c r="P9">
-        <v>0.4630699328544234</v>
+        <v>0.3818296302959431</v>
       </c>
       <c r="Q9">
         <v>0.01382244600177778</v>
@@ -1004,10 +1004,10 @@
         <v>0.124402014016</v>
       </c>
       <c r="S9">
-        <v>0.03345737265971137</v>
+        <v>0.1369376678178569</v>
       </c>
       <c r="T9">
-        <v>0.03345737265971137</v>
+        <v>0.1369376678178569</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,13 +1033,13 @@
         <v>0.2442243333333333</v>
       </c>
       <c r="H10">
-        <v>0.732673</v>
+        <v>0.7326729999999999</v>
       </c>
       <c r="I10">
-        <v>0.07225123093930062</v>
+        <v>0.3586355194899915</v>
       </c>
       <c r="J10">
-        <v>0.07225123093930062</v>
+        <v>0.3586355194899914</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>0.192462</v>
       </c>
       <c r="O10">
-        <v>0.5248973179951236</v>
+        <v>0.4328101106413601</v>
       </c>
       <c r="P10">
-        <v>0.5248973179951236</v>
+        <v>0.4328101106413601</v>
       </c>
       <c r="Q10">
         <v>0.01566796788066667</v>
@@ -1066,10 +1066,10 @@
         <v>0.141011710926</v>
       </c>
       <c r="S10">
-        <v>0.03792447734188519</v>
+        <v>0.1552210788703849</v>
       </c>
       <c r="T10">
-        <v>0.03792447734188519</v>
+        <v>0.1552210788703848</v>
       </c>
     </row>
   </sheetData>
